--- a/Practica3 2024.eng/times.xlsx
+++ b/Practica3 2024.eng/times.xlsx
@@ -19,20 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>n</t>
   </si>
   <si>
     <t>time(ms)</t>
+  </si>
+  <si>
+    <t>Oot</t>
+  </si>
+  <si>
+    <t>Substraction4</t>
+  </si>
+  <si>
+    <t>Substraction5</t>
+  </si>
+  <si>
+    <t>division4</t>
+  </si>
+  <si>
+    <t>Division5</t>
+  </si>
+  <si>
+    <t>size = 5</t>
+  </si>
+  <si>
+    <t>size = 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,8 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,6 +388,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -364,6 +401,12 @@
       </c>
       <c r="B2">
         <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -374,6 +417,13 @@
       <c r="B3">
         <v>377</v>
       </c>
+      <c r="F3" s="2">
+        <f>F2*$J$3</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1729</v>
+      </c>
       <c r="J3">
         <v>2</v>
       </c>
@@ -386,6 +436,13 @@
       <c r="B4">
         <v>2940</v>
       </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F9" si="1">F3*$J$3</f>
+        <v>120</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5305</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -395,29 +452,223 @@
       <c r="B5">
         <v>23661</v>
       </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16138</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>12800</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>3840</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15">
+        <v>65</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15*$J$3</f>
+        <v>2000</v>
+      </c>
+      <c r="B16">
+        <v>187</v>
+      </c>
+      <c r="F16">
+        <f>F15*$J$3</f>
+        <v>2000</v>
+      </c>
+      <c r="G16">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:A22" si="2">A16*$J$3</f>
+        <v>4000</v>
+      </c>
+      <c r="B17">
+        <v>739</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F22" si="3">F16*$J$3</f>
+        <v>4000</v>
+      </c>
+      <c r="G17">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>2954</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="G18">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="B19">
+        <v>11953</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+      <c r="G19">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
+      <c r="B20">
+        <v>47034</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>32000</v>
+      </c>
+      <c r="G20">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>64000</v>
+      </c>
+      <c r="G21">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>128000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>128000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Practica3 2024.eng/times.xlsx
+++ b/Practica3 2024.eng/times.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>n</t>
   </si>
@@ -46,22 +46,71 @@
   </si>
   <si>
     <t>size = 1</t>
+  </si>
+  <si>
+    <t>Sum1(ms)</t>
+  </si>
+  <si>
+    <t>Sum2(ms)</t>
+  </si>
+  <si>
+    <t>Sum3(ms)</t>
+  </si>
+  <si>
+    <t>Fibonacci1(ms)</t>
+  </si>
+  <si>
+    <t>Fibonacci2(ms)</t>
+  </si>
+  <si>
+    <t>Fibonacci3(ms)</t>
+  </si>
+  <si>
+    <t>Fibonacci4(ms)</t>
+  </si>
+  <si>
+    <t>Mergesort</t>
+  </si>
+  <si>
+    <t>t ordered(ms)</t>
+  </si>
+  <si>
+    <t>t reverse(ms)</t>
+  </si>
+  <si>
+    <t>t random(ms)</t>
+  </si>
+  <si>
+    <t>rep = 600000</t>
+  </si>
+  <si>
+    <t>LoR</t>
+  </si>
+  <si>
+    <t>t Mergesort (t1)</t>
+  </si>
+  <si>
+    <t>t Quicksort (t2)</t>
+  </si>
+  <si>
+    <t>t1/t2</t>
+  </si>
+  <si>
+    <t>Home Computer</t>
+  </si>
+  <si>
+    <t>Division4</t>
+  </si>
+  <si>
+    <t>repetitions = 1500000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,8 +140,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -153,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -188,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -365,7 +414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -373,151 +422,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="18" max="21" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="1">
         <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2*$J$3</f>
-        <v>200</v>
-      </c>
-      <c r="B3">
-        <v>377</v>
-      </c>
-      <c r="F3" s="2">
-        <f>F2*$J$3</f>
-        <v>60</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1729</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="0">A3*$J$3</f>
+        <f>A3*$J$3</f>
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>377</v>
+      </c>
+      <c r="F4" s="1">
+        <f>F3+$J$3</f>
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ref="A5:A8" si="0">A4*$J$3</f>
         <v>400</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>2940</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F9" si="1">F3*$J$3</f>
-        <v>120</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F8" si="1">F4+$J$3</f>
+        <v>34</v>
+      </c>
+      <c r="G5" s="1">
         <v>5305</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>23661</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="G5" s="2">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1">
         <v>16138</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>48426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="F7" s="2">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6400</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>1920</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>12800</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>3840</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -530,8 +603,10 @@
       <c r="G14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -544,8 +619,10 @@
       <c r="G15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>A15*$J$3</f>
         <v>2000</v>
@@ -560,8 +637,10 @@
       <c r="G16">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17:A22" si="2">A16*$J$3</f>
         <v>4000</v>
@@ -576,8 +655,10 @@
       <c r="G17">
         <v>529</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>8000</v>
@@ -592,8 +673,10 @@
       <c r="G18">
         <v>2994</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>16000</v>
@@ -608,8 +691,10 @@
       <c r="G19">
         <v>2096</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>32000</v>
@@ -625,7 +710,7 @@
         <v>9108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>64000</v>
@@ -641,7 +726,7 @@
         <v>9108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>128000</v>
@@ -657,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -669,6 +754,617 @@
       </c>
       <c r="G23" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>61</v>
+      </c>
+      <c r="C27">
+        <v>97</v>
+      </c>
+      <c r="D27">
+        <v>126</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+      <c r="K27">
+        <v>64</v>
+      </c>
+      <c r="L27">
+        <v>96</v>
+      </c>
+      <c r="M27">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A27*$J$3</f>
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>155</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="I28">
+        <f>I27+$J$3</f>
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>53</v>
+      </c>
+      <c r="K28">
+        <v>71</v>
+      </c>
+      <c r="L28">
+        <v>127</v>
+      </c>
+      <c r="M28">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ref="A29:A34" si="4">A28*$J$3</f>
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>321</v>
+      </c>
+      <c r="D29">
+        <v>536</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I33" si="5">I28+$J$3</f>
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>58</v>
+      </c>
+      <c r="K29">
+        <v>77</v>
+      </c>
+      <c r="L29">
+        <v>146</v>
+      </c>
+      <c r="M29">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>185</v>
+      </c>
+      <c r="C30">
+        <v>596</v>
+      </c>
+      <c r="D30">
+        <v>1070</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>63</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>164</v>
+      </c>
+      <c r="M30">
+        <v>22558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>311</v>
+      </c>
+      <c r="C31">
+        <v>1137</v>
+      </c>
+      <c r="D31">
+        <v>2175</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>97</v>
+      </c>
+      <c r="L31">
+        <v>179</v>
+      </c>
+      <c r="M31">
+        <v>58380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="B32">
+        <v>561</v>
+      </c>
+      <c r="C32">
+        <v>2234</v>
+      </c>
+      <c r="D32">
+        <v>4381</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>74</v>
+      </c>
+      <c r="K32">
+        <v>98</v>
+      </c>
+      <c r="L32">
+        <v>196</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="B33">
+        <v>1072</v>
+      </c>
+      <c r="C33">
+        <v>4509</v>
+      </c>
+      <c r="D33">
+        <v>8840</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="J33">
+        <v>78</v>
+      </c>
+      <c r="K33">
+        <v>108</v>
+      </c>
+      <c r="L33">
+        <v>215</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="B34">
+        <v>2087</v>
+      </c>
+      <c r="C34">
+        <v>9072</v>
+      </c>
+      <c r="D34">
+        <v>17858</v>
+      </c>
+      <c r="I34">
+        <f>I33+$J$3</f>
+        <v>24</v>
+      </c>
+      <c r="J34">
+        <v>83</v>
+      </c>
+      <c r="K34">
+        <v>118</v>
+      </c>
+      <c r="L34">
+        <v>230</v>
+      </c>
+      <c r="M34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>250000</v>
+      </c>
+      <c r="J41">
+        <v>125</v>
+      </c>
+      <c r="K41">
+        <v>121</v>
+      </c>
+      <c r="L41" s="2">
+        <f>J41/K41</f>
+        <v>1.0330578512396693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>31250</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42">
+        <f>I41*$J$3</f>
+        <v>500000</v>
+      </c>
+      <c r="J42">
+        <v>247</v>
+      </c>
+      <c r="K42">
+        <v>755</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" ref="L42:L47" si="6">J42/K42</f>
+        <v>0.32715231788079469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>A42*$J$3</f>
+        <v>62500</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43:I47" si="7">I42*$J$3</f>
+        <v>1000000</v>
+      </c>
+      <c r="J43">
+        <v>525</v>
+      </c>
+      <c r="K43">
+        <v>1142</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.45971978984238177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ref="A44:A53" si="8">A43*$J$3</f>
+        <v>125000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>59</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>2000000</v>
+      </c>
+      <c r="J44">
+        <v>1052</v>
+      </c>
+      <c r="K44">
+        <v>1161</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="6"/>
+        <v>0.90611541774332471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="8"/>
+        <v>250000</v>
+      </c>
+      <c r="B45">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+      <c r="D45">
+        <v>120</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>4000000</v>
+      </c>
+      <c r="J45">
+        <v>2131</v>
+      </c>
+      <c r="K45">
+        <v>2849</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="6"/>
+        <v>0.74798174798174799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="8"/>
+        <v>500000</v>
+      </c>
+      <c r="B46">
+        <v>192</v>
+      </c>
+      <c r="C46">
+        <v>185</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>8000000</v>
+      </c>
+      <c r="J46">
+        <v>4421</v>
+      </c>
+      <c r="K46">
+        <v>6141</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="6"/>
+        <v>0.71991532323725782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="8"/>
+        <v>1000000</v>
+      </c>
+      <c r="B47">
+        <v>385</v>
+      </c>
+      <c r="C47">
+        <v>385</v>
+      </c>
+      <c r="D47">
+        <v>508</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>16000000</v>
+      </c>
+      <c r="J47">
+        <v>8626</v>
+      </c>
+      <c r="K47">
+        <v>18628</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="6"/>
+        <v>0.46306635172858063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="8"/>
+        <v>2000000</v>
+      </c>
+      <c r="B48">
+        <v>798</v>
+      </c>
+      <c r="C48">
+        <v>790</v>
+      </c>
+      <c r="D48">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="8"/>
+        <v>4000000</v>
+      </c>
+      <c r="B49">
+        <v>1555</v>
+      </c>
+      <c r="C49">
+        <v>1591</v>
+      </c>
+      <c r="D49">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="8"/>
+        <v>8000000</v>
+      </c>
+      <c r="B50">
+        <v>3183</v>
+      </c>
+      <c r="C50">
+        <v>3184</v>
+      </c>
+      <c r="D50">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="8"/>
+        <v>16000000</v>
+      </c>
+      <c r="B51">
+        <v>6468</v>
+      </c>
+      <c r="C51">
+        <v>6564</v>
+      </c>
+      <c r="D51">
+        <v>9023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="8"/>
+        <v>32000000</v>
+      </c>
+      <c r="B52">
+        <v>13465</v>
+      </c>
+      <c r="C52">
+        <v>13366</v>
+      </c>
+      <c r="D52">
+        <v>18376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="8"/>
+        <v>64000000</v>
+      </c>
+      <c r="B53">
+        <v>27743</v>
+      </c>
+      <c r="C53">
+        <v>27840</v>
+      </c>
+      <c r="D53">
+        <v>37271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>128000000</v>
+      </c>
+      <c r="B54">
+        <v>56908</v>
+      </c>
+      <c r="C54">
+        <v>57317</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
